--- a/results/rickysalldaygrillcanada.xlsx
+++ b/results/rickysalldaygrillcanada.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>store_name</t>
   </si>
@@ -266,84 +266,6 @@
   </si>
   <si>
     <t>(604) 533-8911</t>
-  </si>
-  <si>
-    <t>49.265134</t>
-  </si>
-  <si>
-    <t>49.2644334</t>
-  </si>
-  <si>
-    <t>49.234637</t>
-  </si>
-  <si>
-    <t>49.278461</t>
-  </si>
-  <si>
-    <t>49.189999</t>
-  </si>
-  <si>
-    <t>49.133323</t>
-  </si>
-  <si>
-    <t>49.165560</t>
-  </si>
-  <si>
-    <t>49.090245</t>
-  </si>
-  <si>
-    <t>49.104133</t>
-  </si>
-  <si>
-    <t>49.217475</t>
-  </si>
-  <si>
-    <t>49.161877</t>
-  </si>
-  <si>
-    <t>49.040942</t>
-  </si>
-  <si>
-    <t>49.119443</t>
-  </si>
-  <si>
-    <t>-123.004235</t>
-  </si>
-  <si>
-    <t>-123.0244843</t>
-  </si>
-  <si>
-    <t>-122.862858</t>
-  </si>
-  <si>
-    <t>-122.798542</t>
-  </si>
-  <si>
-    <t>-122.830000</t>
-  </si>
-  <si>
-    <t>-122.890457</t>
-  </si>
-  <si>
-    <t>-122.801398</t>
-  </si>
-  <si>
-    <t>-123.077004</t>
-  </si>
-  <si>
-    <t>-122.728337</t>
-  </si>
-  <si>
-    <t>-122.638777</t>
-  </si>
-  <si>
-    <t>-122.656918</t>
-  </si>
-  <si>
-    <t>-122.787861</t>
-  </si>
-  <si>
-    <t>-122.665085</t>
   </si>
   <si>
     <t>Mon: 09:00 am-08:00 pm, Tue: 09:00 am-08:00 pm, Wed: 09:00 am-08:00 pm, Thu: 09:00 am-08:00 pm, Fri: 08:00 am-08:00 pm, Sat: 08:00 am-08:00 pm, Sun: 09:00 am-08:00 pm</t>
@@ -797,14 +719,14 @@
       <c r="I2" t="s">
         <v>71</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>49.265134</v>
+      </c>
+      <c r="K2">
+        <v>-123.004235</v>
+      </c>
+      <c r="L2" t="s">
         <v>84</v>
-      </c>
-      <c r="K2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -832,14 +754,14 @@
       <c r="I3" t="s">
         <v>72</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>49.2644334</v>
+      </c>
+      <c r="K3">
+        <v>-123.0244843</v>
+      </c>
+      <c r="L3" t="s">
         <v>85</v>
-      </c>
-      <c r="K3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -864,14 +786,14 @@
       <c r="I4" t="s">
         <v>73</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>49.234637</v>
+      </c>
+      <c r="K4">
+        <v>-122.862858</v>
+      </c>
+      <c r="L4" t="s">
         <v>86</v>
-      </c>
-      <c r="K4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -899,14 +821,14 @@
       <c r="I5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>49.278461</v>
+      </c>
+      <c r="K5">
+        <v>-122.798542</v>
+      </c>
+      <c r="L5" t="s">
         <v>87</v>
-      </c>
-      <c r="K5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -934,14 +856,14 @@
       <c r="I6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" t="s">
-        <v>101</v>
+      <c r="J6">
+        <v>49.189999</v>
+      </c>
+      <c r="K6">
+        <v>-122.83</v>
       </c>
       <c r="L6" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -969,14 +891,14 @@
       <c r="I7" t="s">
         <v>76</v>
       </c>
-      <c r="J7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" t="s">
-        <v>102</v>
+      <c r="J7">
+        <v>49.133323</v>
+      </c>
+      <c r="K7">
+        <v>-122.890457</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1004,14 +926,14 @@
       <c r="I8" t="s">
         <v>77</v>
       </c>
-      <c r="J8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" t="s">
-        <v>103</v>
+      <c r="J8">
+        <v>49.16556</v>
+      </c>
+      <c r="K8">
+        <v>-122.801398</v>
       </c>
       <c r="L8" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1039,14 +961,14 @@
       <c r="I9" t="s">
         <v>78</v>
       </c>
-      <c r="J9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" t="s">
-        <v>104</v>
+      <c r="J9">
+        <v>49.090245</v>
+      </c>
+      <c r="K9">
+        <v>-123.077004</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1074,14 +996,14 @@
       <c r="I10" t="s">
         <v>79</v>
       </c>
-      <c r="J10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" t="s">
-        <v>105</v>
+      <c r="J10">
+        <v>49.104133</v>
+      </c>
+      <c r="K10">
+        <v>-122.728337</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1109,14 +1031,14 @@
       <c r="I11" t="s">
         <v>80</v>
       </c>
-      <c r="J11" t="s">
-        <v>93</v>
-      </c>
-      <c r="K11" t="s">
-        <v>106</v>
+      <c r="J11">
+        <v>49.217475</v>
+      </c>
+      <c r="K11">
+        <v>-122.638777</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1144,14 +1066,14 @@
       <c r="I12" t="s">
         <v>81</v>
       </c>
-      <c r="J12" t="s">
-        <v>94</v>
-      </c>
-      <c r="K12" t="s">
-        <v>107</v>
+      <c r="J12">
+        <v>49.161877</v>
+      </c>
+      <c r="K12">
+        <v>-122.656918</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1179,14 +1101,14 @@
       <c r="I13" t="s">
         <v>82</v>
       </c>
-      <c r="J13" t="s">
-        <v>95</v>
-      </c>
-      <c r="K13" t="s">
-        <v>108</v>
+      <c r="J13">
+        <v>49.040942</v>
+      </c>
+      <c r="K13">
+        <v>-122.787861</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1214,14 +1136,14 @@
       <c r="I14" t="s">
         <v>83</v>
       </c>
-      <c r="J14" t="s">
-        <v>96</v>
-      </c>
-      <c r="K14" t="s">
-        <v>109</v>
+      <c r="J14">
+        <v>49.119443</v>
+      </c>
+      <c r="K14">
+        <v>-122.665085</v>
       </c>
       <c r="L14" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
